--- a/Aquacrop_crop_table.xlsx
+++ b/Aquacrop_crop_table.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Documents\GitHub\AquaCrop-Calibrations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11381F7-D119-4635-BE1C-5ACC43F76C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>User</t>
   </si>
@@ -278,13 +284,16 @@
   </si>
   <si>
     <t>100/3</t>
+  </si>
+  <si>
+    <t>Caroline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +356,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +442,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,6 +494,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,14 +687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -918,7 +973,7 @@
         <v>85</v>
       </c>
       <c r="J2">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K2">
         <v>644.4</v>
@@ -930,7 +985,7 @@
         <v>814.05</v>
       </c>
       <c r="N2">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O2">
         <v>540</v>
@@ -984,10 +1039,10 @@
         <v>1.5</v>
       </c>
       <c r="AF2">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG2">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH2">
         <v>4.32</v>
@@ -999,13 +1054,13 @@
         <v>0.96</v>
       </c>
       <c r="AK2">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM2">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN2">
         <v>0.1</v>
@@ -1020,7 +1075,7 @@
         <v>0.3</v>
       </c>
       <c r="AR2">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS2">
         <v>5</v>
@@ -1134,13 +1189,13 @@
         <v>0.01</v>
       </c>
       <c r="CD2">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE2">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1169,7 +1224,7 @@
         <v>85</v>
       </c>
       <c r="J3">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K3">
         <v>644.4</v>
@@ -1181,7 +1236,7 @@
         <v>814.05</v>
       </c>
       <c r="N3">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O3">
         <v>540</v>
@@ -1235,10 +1290,10 @@
         <v>1.5</v>
       </c>
       <c r="AF3">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH3">
         <v>4.32</v>
@@ -1250,13 +1305,13 @@
         <v>0.96</v>
       </c>
       <c r="AK3">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL3">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM3">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN3">
         <v>0.1</v>
@@ -1271,7 +1326,7 @@
         <v>0.3</v>
       </c>
       <c r="AR3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS3">
         <v>5</v>
@@ -1385,13 +1440,13 @@
         <v>0.01</v>
       </c>
       <c r="CD3">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE3">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1420,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="J4">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K4">
         <v>644.4</v>
@@ -1432,7 +1487,7 @@
         <v>814.05</v>
       </c>
       <c r="N4">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O4">
         <v>540</v>
@@ -1486,10 +1541,10 @@
         <v>1.5</v>
       </c>
       <c r="AF4">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH4">
         <v>4.32</v>
@@ -1501,13 +1556,13 @@
         <v>0.96</v>
       </c>
       <c r="AK4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM4">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN4">
         <v>0.1</v>
@@ -1522,7 +1577,7 @@
         <v>0.3</v>
       </c>
       <c r="AR4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS4">
         <v>5</v>
@@ -1636,16 +1691,19 @@
         <v>0.01</v>
       </c>
       <c r="CD4">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE4">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -1668,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="J5">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K5">
         <v>644.4</v>
@@ -1680,7 +1738,7 @@
         <v>814.05</v>
       </c>
       <c r="N5">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O5">
         <v>540</v>
@@ -1734,10 +1792,10 @@
         <v>1.5</v>
       </c>
       <c r="AF5">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG5">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH5">
         <v>4.32</v>
@@ -1749,13 +1807,13 @@
         <v>0.96</v>
       </c>
       <c r="AK5">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM5">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN5">
         <v>0.1</v>
@@ -1770,7 +1828,7 @@
         <v>0.3</v>
       </c>
       <c r="AR5">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS5">
         <v>5</v>
@@ -1884,10 +1942,10 @@
         <v>0.01</v>
       </c>
       <c r="CD5">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE5">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
   </sheetData>
